--- a/testing/xlsx/1560-P00-594_SAP 320417_XX.xlsx
+++ b/testing/xlsx/1560-P00-594_SAP 320417_XX.xlsx
@@ -2,14 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="podatki" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +45,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -449,21 +445,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
-  <cols>
-    <col width="30.375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="10.5" bestFit="1" customWidth="1" min="3" max="4"/>
-    <col width="9.375" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="6.75" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="13.5" bestFit="1" customWidth="1" min="7" max="7"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -535,7 +523,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.12 min</t>
+          <t>0.12</t>
         </is>
       </c>
     </row>
@@ -572,7 +560,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.00 min</t>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -609,7 +602,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.03 min</t>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -646,155 +644,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.68 min</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2016-R13-35_317486_XK.GEO</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>82.541</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>50.541</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3199.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.075</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.12 min</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2015-R07-242_r.01_120k.GEO</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>173.482</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1600.000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>143388.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.377</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.00 min</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1560-P00-594_SAP 320417_XK.GEO</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>36.000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>36.000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1192.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.028</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.03 min</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2015-R07-204_r.02_105k.GEO</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>88.988</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1192.988</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>101493.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.390</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.68 min</t>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
